--- a/MultiLang.xlsx
+++ b/MultiLang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aniketkumar/Desktop/Aniket/Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70698A14-7DDA-6D48-80D2-94EF77A5484F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC166E79-B211-0245-B1BC-3767A7F950BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ENGLISH</t>
   </si>
@@ -38,13 +38,22 @@
   </si>
   <si>
     <t>SPANISH</t>
+  </si>
+  <si>
+    <t>Subject or Message cannot be empty</t>
+  </si>
+  <si>
+    <t>Room Name:</t>
+  </si>
+  <si>
+    <t>Family Name:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,8 +81,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +100,12 @@
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -99,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -108,6 +130,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -412,17 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B2" sqref="B2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.6640625" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.1640625" style="1" customWidth="1"/>
-    <col min="2" max="16" width="36.6640625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="36.6640625" style="1"/>
+    <col min="2" max="31" width="36.6640625" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="36.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -445,7 +470,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="83" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+    </row>
+    <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+    </row>
+    <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
